--- a/data4.xlsx
+++ b/data4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,12 +616,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1/1/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>06/30/2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -739,22 +739,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victor Wanyama</t>
+          <t>Tokuma Suzuki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25/6/1991</t>
+          <t>12/03/1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>01/31/2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -768,29 +768,29 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>536</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>1633</v>
+        <v>139</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Cerezo Osaka</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Major League Soccer</t>
+          <t>J1 League</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2 - 2</t>
+          <t>2 - 1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Centre Midfielder</t>
+          <t>Left/Centre Midfielder</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -855,7 +855,7 @@
         <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>42.1</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
         <v>100</v>
@@ -867,58 +867,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asahi Sasaki</t>
+          <t>Ilya Lantratov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/1/2000</t>
+          <t>11/11/1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Goalkeeper</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>substitute</t>
+          <t>starter</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="I4" t="n">
-        <v>209</v>
+        <v>2236</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>FK Khimki</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>J1 League</t>
+          <t>Russian Premier League</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>PFK Krylya Sovetov Samara</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4 - 0</t>
+          <t>0 - 0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Left Defender</t>
+          <t>Centre Goalkeeper</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>50.14</v>
+        <v>30.3</v>
       </c>
       <c r="AH4" t="n">
         <v>100</v>
@@ -995,27 +995,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tokuma Suzuki</t>
+          <t>Willi Orban</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12/3/1997</t>
+          <t>03/11/1992</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Midfielder</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1024,29 +1024,29 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I5" t="n">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>J1 League</t>
+          <t>Bundesliga</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2 - 1</t>
+          <t>3 - 0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Left/Centre Midfielder</t>
+          <t>Centre/Right Defender</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>56.16</v>
       </c>
       <c r="AH5" t="n">
         <v>100</v>
@@ -1123,27 +1123,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ilya Lantratov</t>
+          <t>Mijo Caktaš</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11/11/1995</t>
+          <t>08/05/1992</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goalkeeper</t>
+          <t>Midfielder</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1152,34 +1152,34 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>191</v>
+        <v>879</v>
       </c>
       <c r="I6" t="n">
-        <v>2236</v>
+        <v>2638</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>FK Khimki</t>
+          <t>NK Osijek</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Russian Premier League</t>
+          <t>1. HNL</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>PFK Krylya Sovetov Samara</t>
+          <t>HNK Rijeka</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0 - 0</t>
+          <t>3 - 0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Centre Goalkeeper</t>
+          <t>Right Attacking Midfielder</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1233,655 +1233,15 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>30.3</v>
+        <v>32.9</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>304</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Willi Orban</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3/11/1992</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-06-30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>starter</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>74</v>
-      </c>
-      <c r="I7" t="n">
-        <v>204</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Bundesliga</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Borussia Dortmund</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3 - 0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Centre/Right Defender</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>90</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>56.16</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>304</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rob Schoofs</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>23/3/1994</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Midfielder</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>starter</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>129</v>
-      </c>
-      <c r="I8" t="n">
-        <v>355</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>YR KV Mechelen</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Jupiler Pro League</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>KV Kortrijk</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>4 - 1</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Left/Centre Midfielder</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>90</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>304</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Grimaldo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20/9/1995</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>starter</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>36</v>
-      </c>
-      <c r="I9" t="n">
-        <v>102</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>SL Benfica</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Primeira Liga</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>FC Famalicão</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1 - 0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Left Defender</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>90</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>304</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mijo Caktaš</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8/5/1992</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Midfielder</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>starter</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>879</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2638</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NK Osijek</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1. HNL</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>HNK Rijeka</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>3 - 0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Away</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Right Attacking Midfielder</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>89</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>304</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dušan Tadić</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20/11/1988</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-06-30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Forward</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>starter</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>17</v>
-      </c>
-      <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>AFC Ajax</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Eredivisie</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>SC Heerenveen</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>5 - 0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Centre/Right Striker</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>90</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH11" t="n">
         <v>100</v>
       </c>
     </row>
